--- a/assesmentinsurance.xlsx
+++ b/assesmentinsurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC494F-5C2D-4F4D-8B62-A6AA1FB32F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77D8CA-E4F9-4DC2-B995-8201B714EB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1240,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1942,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198356A2-2589-4D0A-B01A-DFA647293EBE}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
